--- a/medicine/Mort/Allégations_de_génocide_lors_de_l’attaque_israélienne_sur_Gaza_en_2023/Allégations_de_génocide_lors_de_l’attaque_israélienne_sur_Gaza_en_2023.xlsx
+++ b/medicine/Mort/Allégations_de_génocide_lors_de_l’attaque_israélienne_sur_Gaza_en_2023/Allégations_de_génocide_lors_de_l’attaque_israélienne_sur_Gaza_en_2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>All%C3%A9gations_de_g%C3%A9nocide_lors_de_l%E2%80%99attaque_isra%C3%A9lienne_sur_Gaza_en_2023</t>
+          <t>Allégations_de_génocide_lors_de_l’attaque_israélienne_sur_Gaza_en_2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les allégations de génocide des Palestiniens par Israël désignent le discours selon lequel les actions entreprises par Israël pendant la guerre Israël-Hamas de 2023 constituent un génocide contre les Palestiniens. Certains universitaires citent des déclarations israéliennes qu'ils considèrent comme constituant une « intention de détruire » la population de Gaza, une condition nécessaire pour que le seuil légal du génocide soit atteint[1]. Au 22 décembre 2023, plus de 21 000 Palestiniens, dont plus de 8 000 enfants, 6 200 femmes et 61 journalistes, ont été tués, presque autant que lors du génocide des Rohingya[2]. On estime que des milliers de corps supplémentaires ont été enterrés sous les décombres[3],[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les allégations de génocide des Palestiniens par Israël désignent le discours selon lequel les actions entreprises par Israël pendant la guerre Israël-Hamas de 2023 constituent un génocide contre les Palestiniens. Certains universitaires citent des déclarations israéliennes qu'ils considèrent comme constituant une « intention de détruire » la population de Gaza, une condition nécessaire pour que le seuil légal du génocide soit atteint. Au 22 décembre 2023, plus de 21 000 Palestiniens, dont plus de 8 000 enfants, 6 200 femmes et 61 journalistes, ont été tués, presque autant que lors du génocide des Rohingya. On estime que des milliers de corps supplémentaires ont été enterrés sous les décombres.
 Ces allégations sont cependant contestées par d'autres universitaires pour qui les actions israéliennes ne constituent pas un génocide. La guerre, toujours en cours, et l'absence d'enquête indépendante rendent difficile la qualification juridique de la situation dans la bande de Gaza.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All%C3%A9gations_de_g%C3%A9nocide_lors_de_l%E2%80%99attaque_isra%C3%A9lienne_sur_Gaza_en_2023</t>
+          <t>Allégations_de_génocide_lors_de_l’attaque_israélienne_sur_Gaza_en_2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après les attaques du 7 octobre 2023 par le Hamas, Yoav Gallant, ministre de la Défense israélien, a déclaré : « Nous combattons des animaux humains, et nous agissons en conséquence »[6]. Avi Dichter, ministre israélien de l'Agriculture, a appelé à ce que la guerre soit une "Nakba de Gaza" sur la chaîne 12[7]. Amihai Eliyahu, ministre israélien du Patrimoine, a appelé à larguer une bombe atomique sur Gaza[7]. Le président d'Israël Isaac Herzog a blâmé toute la nation palestinienne pour l'attaque du 7 octobre[8].
-Le général-major Ghassan Alian (en), Coordinateur des activités gouvernementales dans les territoires, a déclaré : « Il n'y aura ni électricité ni eau (à Gaza), il n'y aura que destruction. Vous vouliez l'enfer, vous aurez l'enfer, »[6]. La membre du Parti républicain de la Chambre des représentants de Floride, Michelle Salzman, a déclaré à la Chambre que la mort de tous à Gaza serait une réponse à une question rhétorique[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après les attaques du 7 octobre 2023 par le Hamas, Yoav Gallant, ministre de la Défense israélien, a déclaré : « Nous combattons des animaux humains, et nous agissons en conséquence ». Avi Dichter, ministre israélien de l'Agriculture, a appelé à ce que la guerre soit une "Nakba de Gaza" sur la chaîne 12. Amihai Eliyahu, ministre israélien du Patrimoine, a appelé à larguer une bombe atomique sur Gaza. Le président d'Israël Isaac Herzog a blâmé toute la nation palestinienne pour l'attaque du 7 octobre.
+Le général-major Ghassan Alian (en), Coordinateur des activités gouvernementales dans les territoires, a déclaré : « Il n'y aura ni électricité ni eau (à Gaza), il n'y aura que destruction. Vous vouliez l'enfer, vous aurez l'enfer, ». La membre du Parti républicain de la Chambre des représentants de Floride, Michelle Salzman, a déclaré à la Chambre que la mort de tous à Gaza serait une réponse à une question rhétorique.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>All%C3%A9gations_de_g%C3%A9nocide_lors_de_l%E2%80%99attaque_isra%C3%A9lienne_sur_Gaza_en_2023</t>
+          <t>Allégations_de_génocide_lors_de_l’attaque_israélienne_sur_Gaza_en_2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Discours académique et juridique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Norman Finkelstein affirme que Benjamin Netanyahu appelant les Palestiniens Amalek est un appel au génocide[10]. Il accuse Israël de mener une « guerre génocidaire »[11]. Raz Segal a qualifié la guerre de « cas typique de génocide »[8]. Cela a été réfuté par le professeur David Simon et Ben Kiernan de l'Université Yale[8].
-L'Afrique du Sud saisit la Cour internationale de justice en vertu de la convention de Genève pour enquêter sur Israël pour des allégations de génocide, de crimes de guerre et de Crimes contre l'humanité[12]. Le président de l'Afrique du Sud, Cyril Ramaphosa, a comparé les actions d'Israël à l'Apartheid[13]. Israël a nié les allégations et a accusé l'Afrique du Sud de collaborer avec le Hamas[12]. Israël a qualifié les actions de l'Afrique du Sud d'accusation antisémite de meurtre rituel[14]. Le 2 janvier 2024, Israël a décidé de comparaître devant la CIJ en réponse à l'affaire présentée par l'Afrique du Sud selon laquelle Israël commettrait un génocide[15].
-Euro-Mediterranean Human Rights Monitor (organisation indépendante à but non lucratif pour la protection des droits de l'homme) documente des preuves d'exécutions commises par les Forces de défense israéliennes. Elle a soumis les preuves et la documentation à la Cour pénale internationale et au rapporteur spécial des Nations unies[16].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Norman Finkelstein affirme que Benjamin Netanyahu appelant les Palestiniens Amalek est un appel au génocide. Il accuse Israël de mener une « guerre génocidaire ». Raz Segal a qualifié la guerre de « cas typique de génocide ». Cela a été réfuté par le professeur David Simon et Ben Kiernan de l'Université Yale.
+L'Afrique du Sud saisit la Cour internationale de justice en vertu de la convention de Genève pour enquêter sur Israël pour des allégations de génocide, de crimes de guerre et de Crimes contre l'humanité. Le président de l'Afrique du Sud, Cyril Ramaphosa, a comparé les actions d'Israël à l'Apartheid. Israël a nié les allégations et a accusé l'Afrique du Sud de collaborer avec le Hamas. Israël a qualifié les actions de l'Afrique du Sud d'accusation antisémite de meurtre rituel. Le 2 janvier 2024, Israël a décidé de comparaître devant la CIJ en réponse à l'affaire présentée par l'Afrique du Sud selon laquelle Israël commettrait un génocide.
+Euro-Mediterranean Human Rights Monitor (organisation indépendante à but non lucratif pour la protection des droits de l'homme) documente des preuves d'exécutions commises par les Forces de défense israéliennes. Elle a soumis les preuves et la documentation à la Cour pénale internationale et au rapporteur spécial des Nations unies.
 </t>
         </is>
       </c>
